--- a/data/trans_dic/CoPsoQ_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R2-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5522291508289412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4681572749257505</v>
+        <v>0.4681572749257507</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.429810301210803</v>
@@ -655,7 +655,7 @@
         <v>0.4706058609136593</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.4812754739007635</v>
+        <v>0.4812754739007636</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.4777170550578637</v>
@@ -664,7 +664,7 @@
         <v>0.5191750680481843</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4739256648965854</v>
+        <v>0.4739256648965853</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4439919922152594</v>
+        <v>0.447701592384643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4871677392701825</v>
+        <v>0.4818926198683475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3548991909169609</v>
+        <v>0.3325521978991234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3534960454206427</v>
+        <v>0.3520835124473754</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3922607561750671</v>
+        <v>0.3999213509846694</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3661759003787856</v>
+        <v>0.3736338942058122</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.424936422561193</v>
+        <v>0.4311684789964786</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4697899114031571</v>
+        <v>0.474355314141315</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3821145279843058</v>
+        <v>0.3887170681629872</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5727288494415177</v>
+        <v>0.5716539583144032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6173236427666311</v>
+        <v>0.6122155821824948</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5993257351988533</v>
+        <v>0.5916750447576214</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5183910626894673</v>
+        <v>0.509496776126635</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5521976655254509</v>
+        <v>0.5444524626330246</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5927522387769024</v>
+        <v>0.5932274282853582</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5253333353527549</v>
+        <v>0.5253940891374979</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5676043155535944</v>
+        <v>0.5682552323845818</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5549892994520988</v>
+        <v>0.5628599328040531</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.5409956890832017</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.490239236049151</v>
+        <v>0.4902392360491511</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.5753465637026121</v>
@@ -773,7 +773,7 @@
         <v>0.5411776189318331</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.4513670024127107</v>
+        <v>0.4513670024127106</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5488220048692108</v>
+        <v>0.5467451406744535</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4891196485139798</v>
+        <v>0.4902585297539011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3286558220119782</v>
+        <v>0.3417627889878915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4838841666661238</v>
+        <v>0.4775972079315424</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.476961796234599</v>
+        <v>0.4794676790657807</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4148283773093193</v>
+        <v>0.4097521993302997</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5334950455858289</v>
+        <v>0.5344373508007977</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5029373814569544</v>
+        <v>0.5031602938181799</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3906079711983858</v>
+        <v>0.3923584552263405</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6488794917337481</v>
+        <v>0.6476700781673124</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5906709021628573</v>
+        <v>0.5916828933120226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.505582302773219</v>
+        <v>0.5083235803283001</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6026431792613939</v>
+        <v>0.6079869855950375</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5950432394891884</v>
+        <v>0.6017296286799575</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.574127436933231</v>
+        <v>0.5703797879587587</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6151036995644041</v>
+        <v>0.6147913867116522</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5829200321933438</v>
+        <v>0.5775174481014012</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.516072426697889</v>
+        <v>0.5158653513948273</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5375247088190434</v>
+        <v>0.53775656692971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.557145955189744</v>
+        <v>0.5538600272292235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3015333304042985</v>
+        <v>0.2999061752668694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5485255968580928</v>
+        <v>0.5544523883802035</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5875708016230118</v>
+        <v>0.5827199541950443</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3885587926071358</v>
+        <v>0.3949507371364164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5554654449785472</v>
+        <v>0.5628252824490202</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5854290421322466</v>
+        <v>0.585535323420492</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3720308060677366</v>
+        <v>0.3707375670312702</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6542403957182861</v>
+        <v>0.6533003414344607</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6631092813255612</v>
+        <v>0.6617251485799367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.54580113274612</v>
+        <v>0.5351002861974844</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6950979918446601</v>
+        <v>0.6988265915137383</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7034826499709057</v>
+        <v>0.6993903300453793</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5769931988171142</v>
+        <v>0.5766070454206794</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6494264800960586</v>
+        <v>0.6547660616181826</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6633131481883576</v>
+        <v>0.6630682439109347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5316703656652064</v>
+        <v>0.5285207865055394</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.5238140172924414</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.3829415693524974</v>
+        <v>0.3829415693524973</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5817728775066122</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5588258941461944</v>
+        <v>0.5593977932638742</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4515046297484071</v>
+        <v>0.4496861887628088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1958763733426361</v>
+        <v>0.2000200382182915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4860603865991554</v>
+        <v>0.4868561377023241</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4653492740578451</v>
+        <v>0.4676100218872526</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.292363106019397</v>
+        <v>0.2960014584941061</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.53874737522975</v>
+        <v>0.5437566694330203</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4770389438395198</v>
+        <v>0.47202488973144</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2625556683337144</v>
+        <v>0.2722135319425905</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6613348507765435</v>
+        <v>0.6524461764389762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5510447199047822</v>
+        <v>0.5471917696182965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3797869889335235</v>
+        <v>0.3731864935185267</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6034807942949222</v>
+        <v>0.6092025677864118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5850195924554316</v>
+        <v>0.5786406077081874</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4772333073835824</v>
+        <v>0.4742119972294941</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6152014503463547</v>
+        <v>0.619758238756421</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5469250697721835</v>
+        <v>0.5487251348181146</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3906916587405437</v>
+        <v>0.3986587007311207</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5492552692122116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5433142340123405</v>
@@ -1091,7 +1091,7 @@
         <v>0.5516127117179139</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5670204211383862</v>
@@ -1100,7 +1100,7 @@
         <v>0.5502489460869632</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>117614</v>
+        <v>118597</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>117564</v>
+        <v>116291</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34678</v>
+        <v>32494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>55592</v>
+        <v>55370</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>64422</v>
+        <v>65680</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28081</v>
+        <v>28653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>179393</v>
+        <v>182024</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>190525</v>
+        <v>192376</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>66640</v>
+        <v>67791</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>151716</v>
+        <v>151432</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>148973</v>
+        <v>147740</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58561</v>
+        <v>57813</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81524</v>
+        <v>80125</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>90689</v>
+        <v>89417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45456</v>
+        <v>45493</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>221777</v>
+        <v>221802</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>230194</v>
+        <v>230458</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>96789</v>
+        <v>98162</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>219852</v>
+        <v>219020</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>202127</v>
+        <v>202597</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54861</v>
+        <v>57049</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>127771</v>
+        <v>126110</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>130092</v>
+        <v>130775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50989</v>
+        <v>50366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>354582</v>
+        <v>355208</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>345014</v>
+        <v>345166</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>113215</v>
+        <v>113722</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>259933</v>
+        <v>259449</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>244092</v>
+        <v>244511</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84395</v>
+        <v>84852</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>159129</v>
+        <v>160540</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>162299</v>
+        <v>164122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70570</v>
+        <v>70109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>408823</v>
+        <v>408615</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>399881</v>
+        <v>396175</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>149580</v>
+        <v>149520</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>170141</v>
+        <v>170214</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>202116</v>
+        <v>200924</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27813</v>
+        <v>27662</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>114644</v>
+        <v>115883</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>158364</v>
+        <v>157057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35330</v>
+        <v>35911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>291913</v>
+        <v>295781</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>370163</v>
+        <v>370230</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>68142</v>
+        <v>67905</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>207084</v>
+        <v>206787</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>240556</v>
+        <v>240054</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50343</v>
+        <v>49356</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>145278</v>
+        <v>146058</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>189605</v>
+        <v>188502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>52463</v>
+        <v>52428</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>341292</v>
+        <v>344099</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>419409</v>
+        <v>419254</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>97382</v>
+        <v>96805</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>227892</v>
+        <v>228125</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>180151</v>
+        <v>179425</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22630</v>
+        <v>23109</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>143693</v>
+        <v>143928</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>151459</v>
+        <v>152195</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27325</v>
+        <v>27665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>378973</v>
+        <v>382496</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>345603</v>
+        <v>341970</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>54873</v>
+        <v>56892</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>269696</v>
+        <v>266071</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>219867</v>
+        <v>218330</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43878</v>
+        <v>43116</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>178406</v>
+        <v>180097</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>190409</v>
+        <v>188332</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44604</v>
+        <v>44322</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>432753</v>
+        <v>435958</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>396234</v>
+        <v>397538</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>81653</v>
+        <v>83318</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
     </row>
     <row r="24">
